--- a/biology/Médecine/Capacité_pulmonaire_totale/Capacité_pulmonaire_totale.xlsx
+++ b/biology/Médecine/Capacité_pulmonaire_totale/Capacité_pulmonaire_totale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_pulmonaire_totale</t>
+          <t>Capacité_pulmonaire_totale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capacité pulmonaire totale (CPT) désigne le volume d'air maximal que contiennent les poumons après une inspiration forcée.
 C'est la somme du volume résiduel (VR) et de la capacité vitale (CV). Le volume résiduel se mesure par deux méthodes : méthode de dilution de l'hélium, qui n'est plus guère pratiquée car longue et source d'erreurs, et par la méthode de pléthysmographie (sujet enfermé dans une cabine).
